--- a/public/交易明细填写模板.xlsx
+++ b/public/交易明细填写模板.xlsx
@@ -41,10 +41,10 @@
     <t>公司名称</t>
   </si>
   <si>
-    <t>对手方名称</t>
+    <t>银行名称</t>
   </si>
   <si>
-    <t>银行名称</t>
+    <t>对手方名称</t>
   </si>
   <si>
     <t>业务类型</t>
@@ -563,7 +563,7 @@
     </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1255,7 +1255,7 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H37" sqref="H37"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="1"/>
